--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_18-50.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_18-50.xlsx
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
     <t>BIOVIT 12 DEPOT 2 AMP</t>
@@ -1137,17 +1140,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>-28</v>
+        <v>32</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1155,7 +1158,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1163,13 +1166,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1189,13 +1192,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1207,7 +1210,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1215,17 +1218,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1241,13 +1244,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1267,17 +1270,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1293,17 +1296,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1319,17 +1322,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1337,7 +1340,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1345,17 +1348,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>27.5</v>
+        <v>66</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1363,7 +1366,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1371,13 +1374,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1397,13 +1400,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1415,7 +1418,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1423,17 +1426,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1441,7 +1444,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1449,17 +1452,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>122.5</v>
+        <v>52</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1467,7 +1470,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1475,17 +1478,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>35</v>
+        <v>122.5</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1501,17 +1504,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1519,7 +1522,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1527,17 +1530,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1545,7 +1548,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1553,17 +1556,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1579,13 +1582,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1605,17 +1608,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1631,17 +1634,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1657,17 +1660,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1675,7 +1678,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1683,17 +1686,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1709,17 +1712,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>30.670000000000002</v>
+        <v>30</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1735,17 +1738,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1761,17 +1764,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1787,17 +1790,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1813,17 +1816,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1839,13 +1842,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1865,13 +1868,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1891,13 +1894,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1917,13 +1920,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1943,13 +1946,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1969,13 +1972,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1995,17 +1998,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>27.329999999999998</v>
+        <v>30</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2013,7 +2016,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2021,17 +2024,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2047,13 +2050,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2079,7 +2082,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2099,17 +2102,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2125,17 +2128,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2151,17 +2154,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2183,11 +2186,11 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2203,17 +2206,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>76.439999999999998</v>
+        <v>43</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2229,17 +2232,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>16</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2255,17 +2258,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2281,17 +2284,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2307,17 +2310,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2339,11 +2342,11 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2359,17 +2362,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2385,13 +2388,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2411,13 +2414,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2437,17 +2440,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2463,17 +2466,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2489,17 +2492,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2515,17 +2518,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2533,7 +2536,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2541,17 +2544,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2573,7 +2576,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2593,13 +2596,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2619,17 +2622,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2645,13 +2648,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2671,17 +2674,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2697,13 +2700,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2715,7 +2718,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2723,17 +2726,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2741,7 +2744,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2749,17 +2752,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2767,7 +2770,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2775,17 +2778,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2801,17 +2804,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2827,13 +2830,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2853,7 +2856,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -2879,13 +2882,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2897,7 +2900,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2905,17 +2908,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2923,7 +2926,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2931,17 +2934,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2957,17 +2960,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2983,13 +2986,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3009,13 +3012,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3035,13 +3038,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3061,13 +3064,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>30</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3079,7 +3082,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3087,51 +3090,77 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" ht="26.25" customHeight="1">
-      <c r="K87" s="10">
-        <v>3805.8600000000001</v>
-      </c>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c t="s" r="B87" s="7">
         <v>118</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c t="s" r="F88" s="12">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c t="s" r="H87" s="8">
+        <v>117</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9">
+        <v>70</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c t="s" r="N87" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" customHeight="1">
+      <c r="K88" s="10">
+        <v>3839.8600000000001</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c t="s" r="A89" s="11">
         <v>119</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-      <c t="s" r="I88" s="14">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c t="s" r="F89" s="12">
         <v>120</v>
       </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+      <c t="s" r="I89" s="14">
+        <v>121</v>
+      </c>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
+  <mergeCells count="263">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3388,10 +3417,13 @@
     <mergeCell ref="B86:G86"/>
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:N89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
